--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -13,10 +13,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16625" uniqueCount="11">
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +86,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +404,3286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>26</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>26</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>26</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>26</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>26</v>
+      </c>
+      <c r="F31">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>26</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>26</v>
+      </c>
+      <c r="F34">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>26</v>
+      </c>
+      <c r="F35">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>26</v>
+      </c>
+      <c r="F36">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>26</v>
+      </c>
+      <c r="F37">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>26</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <v>26</v>
+      </c>
+      <c r="F39">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>26</v>
+      </c>
+      <c r="F41">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>21</v>
+      </c>
+      <c r="E43">
+        <v>26</v>
+      </c>
+      <c r="F43">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>26</v>
+      </c>
+      <c r="F44">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <v>26</v>
+      </c>
+      <c r="F45">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>26</v>
+      </c>
+      <c r="F46">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>26</v>
+      </c>
+      <c r="F47">
+        <v>34</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>21</v>
+      </c>
+      <c r="E48">
+        <v>26</v>
+      </c>
+      <c r="F48">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>21</v>
+      </c>
+      <c r="E49">
+        <v>26</v>
+      </c>
+      <c r="F49">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <v>26</v>
+      </c>
+      <c r="F50">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <v>21</v>
+      </c>
+      <c r="E51">
+        <v>26</v>
+      </c>
+      <c r="F51">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>21</v>
+      </c>
+      <c r="E52">
+        <v>26</v>
+      </c>
+      <c r="F52">
+        <v>40</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>21</v>
+      </c>
+      <c r="E53">
+        <v>26</v>
+      </c>
+      <c r="F53">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>21</v>
+      </c>
+      <c r="E54">
+        <v>26</v>
+      </c>
+      <c r="F54">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>21</v>
+      </c>
+      <c r="E55">
+        <v>26</v>
+      </c>
+      <c r="F55">
+        <v>43</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>21</v>
+      </c>
+      <c r="E56">
+        <v>26</v>
+      </c>
+      <c r="F56">
+        <v>44</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>21</v>
+      </c>
+      <c r="E57">
+        <v>26</v>
+      </c>
+      <c r="F57">
+        <v>45</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>21</v>
+      </c>
+      <c r="E58">
+        <v>26</v>
+      </c>
+      <c r="F58">
+        <v>46</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>21</v>
+      </c>
+      <c r="E59">
+        <v>26</v>
+      </c>
+      <c r="F59">
+        <v>47</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>21</v>
+      </c>
+      <c r="E60">
+        <v>26</v>
+      </c>
+      <c r="F60">
+        <v>48</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>21</v>
+      </c>
+      <c r="E61">
+        <v>26</v>
+      </c>
+      <c r="F61">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>21</v>
+      </c>
+      <c r="E62">
+        <v>26</v>
+      </c>
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>19</v>
+      </c>
+      <c r="D63">
+        <v>21</v>
+      </c>
+      <c r="E63">
+        <v>26</v>
+      </c>
+      <c r="F63">
+        <v>51</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>21</v>
+      </c>
+      <c r="E64">
+        <v>26</v>
+      </c>
+      <c r="F64">
+        <v>52</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>19</v>
+      </c>
+      <c r="D65">
+        <v>21</v>
+      </c>
+      <c r="E65">
+        <v>26</v>
+      </c>
+      <c r="F65">
+        <v>53</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>19</v>
+      </c>
+      <c r="D66">
+        <v>21</v>
+      </c>
+      <c r="E66">
+        <v>26</v>
+      </c>
+      <c r="F66">
+        <v>54</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>19</v>
+      </c>
+      <c r="D67">
+        <v>21</v>
+      </c>
+      <c r="E67">
+        <v>26</v>
+      </c>
+      <c r="F67">
+        <v>55</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>21</v>
+      </c>
+      <c r="E68">
+        <v>26</v>
+      </c>
+      <c r="F68">
+        <v>56</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>19</v>
+      </c>
+      <c r="D69">
+        <v>21</v>
+      </c>
+      <c r="E69">
+        <v>26</v>
+      </c>
+      <c r="F69">
+        <v>57</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>21</v>
+      </c>
+      <c r="E70">
+        <v>26</v>
+      </c>
+      <c r="F70">
+        <v>58</v>
+      </c>
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <v>21</v>
+      </c>
+      <c r="E71">
+        <v>26</v>
+      </c>
+      <c r="F71">
+        <v>59</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>21</v>
+      </c>
+      <c r="E72">
+        <v>27</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>21</v>
+      </c>
+      <c r="E73">
+        <v>27</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>21</v>
+      </c>
+      <c r="E74">
+        <v>27</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>21</v>
+      </c>
+      <c r="E75">
+        <v>27</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>21</v>
+      </c>
+      <c r="E76">
+        <v>27</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>21</v>
+      </c>
+      <c r="E77">
+        <v>27</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>21</v>
+      </c>
+      <c r="E78">
+        <v>27</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>21</v>
+      </c>
+      <c r="E79">
+        <v>27</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>19</v>
+      </c>
+      <c r="D80">
+        <v>21</v>
+      </c>
+      <c r="E80">
+        <v>27</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>21</v>
+      </c>
+      <c r="E81">
+        <v>27</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>19</v>
+      </c>
+      <c r="D82">
+        <v>21</v>
+      </c>
+      <c r="E82">
+        <v>27</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>19</v>
+      </c>
+      <c r="D83">
+        <v>21</v>
+      </c>
+      <c r="E83">
+        <v>27</v>
+      </c>
+      <c r="F83">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <v>21</v>
+      </c>
+      <c r="E84">
+        <v>27</v>
+      </c>
+      <c r="F84">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>19</v>
+      </c>
+      <c r="D85">
+        <v>21</v>
+      </c>
+      <c r="E85">
+        <v>27</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>19</v>
+      </c>
+      <c r="D86">
+        <v>21</v>
+      </c>
+      <c r="E86">
+        <v>27</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>19</v>
+      </c>
+      <c r="D87">
+        <v>21</v>
+      </c>
+      <c r="E87">
+        <v>27</v>
+      </c>
+      <c r="F87">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>19</v>
+      </c>
+      <c r="D88">
+        <v>21</v>
+      </c>
+      <c r="E88">
+        <v>27</v>
+      </c>
+      <c r="F88">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>19</v>
+      </c>
+      <c r="D89">
+        <v>21</v>
+      </c>
+      <c r="E89">
+        <v>27</v>
+      </c>
+      <c r="F89">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>21</v>
+      </c>
+      <c r="E90">
+        <v>27</v>
+      </c>
+      <c r="F90">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>19</v>
+      </c>
+      <c r="D91">
+        <v>21</v>
+      </c>
+      <c r="E91">
+        <v>27</v>
+      </c>
+      <c r="F91">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>19</v>
+      </c>
+      <c r="D92">
+        <v>21</v>
+      </c>
+      <c r="E92">
+        <v>27</v>
+      </c>
+      <c r="F92">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>19</v>
+      </c>
+      <c r="D93">
+        <v>21</v>
+      </c>
+      <c r="E93">
+        <v>27</v>
+      </c>
+      <c r="F93">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>19</v>
+      </c>
+      <c r="D94">
+        <v>21</v>
+      </c>
+      <c r="E94">
+        <v>27</v>
+      </c>
+      <c r="F94">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>19</v>
+      </c>
+      <c r="D95">
+        <v>21</v>
+      </c>
+      <c r="E95">
+        <v>27</v>
+      </c>
+      <c r="F95">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>19</v>
+      </c>
+      <c r="D96">
+        <v>21</v>
+      </c>
+      <c r="E96">
+        <v>27</v>
+      </c>
+      <c r="F96">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>21</v>
+      </c>
+      <c r="E97">
+        <v>27</v>
+      </c>
+      <c r="F97">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>19</v>
+      </c>
+      <c r="D98">
+        <v>21</v>
+      </c>
+      <c r="E98">
+        <v>27</v>
+      </c>
+      <c r="F98">
+        <v>28</v>
+      </c>
+      <c r="G98" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>19</v>
+      </c>
+      <c r="D99">
+        <v>21</v>
+      </c>
+      <c r="E99">
+        <v>27</v>
+      </c>
+      <c r="F99">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>19</v>
+      </c>
+      <c r="D100">
+        <v>21</v>
+      </c>
+      <c r="E100">
+        <v>27</v>
+      </c>
+      <c r="F100">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>19</v>
+      </c>
+      <c r="D101">
+        <v>21</v>
+      </c>
+      <c r="E101">
+        <v>27</v>
+      </c>
+      <c r="F101">
+        <v>31</v>
+      </c>
+      <c r="G101" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>19</v>
+      </c>
+      <c r="D102">
+        <v>21</v>
+      </c>
+      <c r="E102">
+        <v>27</v>
+      </c>
+      <c r="F102">
+        <v>32</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>19</v>
+      </c>
+      <c r="D103">
+        <v>21</v>
+      </c>
+      <c r="E103">
+        <v>27</v>
+      </c>
+      <c r="F103">
+        <v>33</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>19</v>
+      </c>
+      <c r="D104">
+        <v>21</v>
+      </c>
+      <c r="E104">
+        <v>27</v>
+      </c>
+      <c r="F104">
+        <v>34</v>
+      </c>
+      <c r="G104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>19</v>
+      </c>
+      <c r="D105">
+        <v>21</v>
+      </c>
+      <c r="E105">
+        <v>27</v>
+      </c>
+      <c r="F105">
+        <v>35</v>
+      </c>
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>19</v>
+      </c>
+      <c r="D106">
+        <v>21</v>
+      </c>
+      <c r="E106">
+        <v>27</v>
+      </c>
+      <c r="F106">
+        <v>36</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>19</v>
+      </c>
+      <c r="D107">
+        <v>21</v>
+      </c>
+      <c r="E107">
+        <v>27</v>
+      </c>
+      <c r="F107">
+        <v>37</v>
+      </c>
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>19</v>
+      </c>
+      <c r="D108">
+        <v>21</v>
+      </c>
+      <c r="E108">
+        <v>27</v>
+      </c>
+      <c r="F108">
+        <v>38</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>19</v>
+      </c>
+      <c r="D109">
+        <v>21</v>
+      </c>
+      <c r="E109">
+        <v>27</v>
+      </c>
+      <c r="F109">
+        <v>39</v>
+      </c>
+      <c r="G109" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>19</v>
+      </c>
+      <c r="D110">
+        <v>21</v>
+      </c>
+      <c r="E110">
+        <v>27</v>
+      </c>
+      <c r="F110">
+        <v>40</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>19</v>
+      </c>
+      <c r="D111">
+        <v>21</v>
+      </c>
+      <c r="E111">
+        <v>27</v>
+      </c>
+      <c r="F111">
+        <v>41</v>
+      </c>
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>19</v>
+      </c>
+      <c r="D112">
+        <v>21</v>
+      </c>
+      <c r="E112">
+        <v>27</v>
+      </c>
+      <c r="F112">
+        <v>42</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>19</v>
+      </c>
+      <c r="D113">
+        <v>21</v>
+      </c>
+      <c r="E113">
+        <v>27</v>
+      </c>
+      <c r="F113">
+        <v>43</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>19</v>
+      </c>
+      <c r="D114">
+        <v>21</v>
+      </c>
+      <c r="E114">
+        <v>27</v>
+      </c>
+      <c r="F114">
+        <v>44</v>
+      </c>
+      <c r="G114" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>19</v>
+      </c>
+      <c r="D115">
+        <v>21</v>
+      </c>
+      <c r="E115">
+        <v>27</v>
+      </c>
+      <c r="F115">
+        <v>45</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>19</v>
+      </c>
+      <c r="D116">
+        <v>21</v>
+      </c>
+      <c r="E116">
+        <v>27</v>
+      </c>
+      <c r="F116">
+        <v>46</v>
+      </c>
+      <c r="G116" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>19</v>
+      </c>
+      <c r="D117">
+        <v>21</v>
+      </c>
+      <c r="E117">
+        <v>27</v>
+      </c>
+      <c r="F117">
+        <v>48</v>
+      </c>
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>19</v>
+      </c>
+      <c r="D118">
+        <v>21</v>
+      </c>
+      <c r="E118">
+        <v>27</v>
+      </c>
+      <c r="F118">
+        <v>49</v>
+      </c>
+      <c r="G118" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>19</v>
+      </c>
+      <c r="D119">
+        <v>21</v>
+      </c>
+      <c r="E119">
+        <v>27</v>
+      </c>
+      <c r="F119">
+        <v>50</v>
+      </c>
+      <c r="G119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>19</v>
+      </c>
+      <c r="D120">
+        <v>21</v>
+      </c>
+      <c r="E120">
+        <v>27</v>
+      </c>
+      <c r="F120">
+        <v>51</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>19</v>
+      </c>
+      <c r="D121">
+        <v>21</v>
+      </c>
+      <c r="E121">
+        <v>27</v>
+      </c>
+      <c r="F121">
+        <v>52</v>
+      </c>
+      <c r="G121" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>19</v>
+      </c>
+      <c r="D122">
+        <v>21</v>
+      </c>
+      <c r="E122">
+        <v>27</v>
+      </c>
+      <c r="F122">
+        <v>53</v>
+      </c>
+      <c r="G122" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>19</v>
+      </c>
+      <c r="D123">
+        <v>21</v>
+      </c>
+      <c r="E123">
+        <v>27</v>
+      </c>
+      <c r="F123">
+        <v>54</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>19</v>
+      </c>
+      <c r="D124">
+        <v>21</v>
+      </c>
+      <c r="E124">
+        <v>27</v>
+      </c>
+      <c r="F124">
+        <v>55</v>
+      </c>
+      <c r="G124" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>19</v>
+      </c>
+      <c r="D125">
+        <v>21</v>
+      </c>
+      <c r="E125">
+        <v>27</v>
+      </c>
+      <c r="F125">
+        <v>56</v>
+      </c>
+      <c r="G125" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>19</v>
+      </c>
+      <c r="D126">
+        <v>21</v>
+      </c>
+      <c r="E126">
+        <v>27</v>
+      </c>
+      <c r="F126">
+        <v>57</v>
+      </c>
+      <c r="G126" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>